--- a/data/pca/factorExposure/factorExposure_2018-04-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009626153542166321</v>
+        <v>-0.0181288911254024</v>
       </c>
       <c r="C2">
-        <v>-0.02448762973898623</v>
+        <v>0.01879448038875421</v>
       </c>
       <c r="D2">
-        <v>0.03646199388167457</v>
+        <v>-0.03069622829624054</v>
       </c>
       <c r="E2">
-        <v>0.007511363117279251</v>
+        <v>0.01882417742352237</v>
       </c>
       <c r="F2">
-        <v>0.1077619050514286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.005977571731009842</v>
+      </c>
+      <c r="G2">
+        <v>-0.03820809852331838</v>
+      </c>
+      <c r="H2">
+        <v>-0.04622274929468687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09233938765024426</v>
+        <v>-0.07201637604032533</v>
       </c>
       <c r="C3">
-        <v>-0.0415524878363942</v>
+        <v>-0.009874517559892963</v>
       </c>
       <c r="D3">
-        <v>0.03596184307739211</v>
+        <v>-0.08041501951521565</v>
       </c>
       <c r="E3">
-        <v>-0.03501974714846509</v>
+        <v>0.005280874205369161</v>
       </c>
       <c r="F3">
-        <v>0.3663056077076123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.007925177755602027</v>
+      </c>
+      <c r="G3">
+        <v>-0.1606940917267084</v>
+      </c>
+      <c r="H3">
+        <v>-0.1257421850481749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04441216859779273</v>
+        <v>-0.03818588244611601</v>
       </c>
       <c r="C4">
-        <v>-0.01267891120134433</v>
+        <v>0.007373688719704211</v>
       </c>
       <c r="D4">
-        <v>0.03473085997552074</v>
+        <v>-0.06468716935592958</v>
       </c>
       <c r="E4">
-        <v>0.037732840530294</v>
+        <v>-0.01704150595529748</v>
       </c>
       <c r="F4">
-        <v>0.06231548880684835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04226633341728085</v>
+      </c>
+      <c r="G4">
+        <v>-0.03881021569018688</v>
+      </c>
+      <c r="H4">
+        <v>-0.05720014349873037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03362221966758473</v>
+        <v>-0.02216091229478602</v>
       </c>
       <c r="C6">
-        <v>-0.01143442511170219</v>
+        <v>0.00340149639545872</v>
       </c>
       <c r="D6">
-        <v>0.02872664468185757</v>
+        <v>-0.06449147839750131</v>
       </c>
       <c r="E6">
-        <v>0.02216547876185231</v>
+        <v>-0.006131223473673068</v>
       </c>
       <c r="F6">
-        <v>0.007767305209003962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03227227986177958</v>
+      </c>
+      <c r="G6">
+        <v>-0.01081100290059713</v>
+      </c>
+      <c r="H6">
+        <v>-0.06231935094906078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0356521283691107</v>
+        <v>-0.01139331970953019</v>
       </c>
       <c r="C7">
-        <v>0.02959201374967901</v>
+        <v>0.004965865057901316</v>
       </c>
       <c r="D7">
-        <v>0.03485417595760988</v>
+        <v>-0.03625861238004331</v>
       </c>
       <c r="E7">
-        <v>0.02286885813283709</v>
+        <v>-0.04358487892481768</v>
       </c>
       <c r="F7">
-        <v>0.03994405852258897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0008649774277233971</v>
+      </c>
+      <c r="G7">
+        <v>-0.02128746889825111</v>
+      </c>
+      <c r="H7">
+        <v>-0.03819745821575926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01797241604543476</v>
+        <v>-0.003040363257387919</v>
       </c>
       <c r="C8">
-        <v>-0.002728835831312373</v>
+        <v>-0.00122111793883042</v>
       </c>
       <c r="D8">
-        <v>0.04196126069270771</v>
+        <v>-0.0151023437615398</v>
       </c>
       <c r="E8">
-        <v>0.02794860985267846</v>
+        <v>-0.00974636654497231</v>
       </c>
       <c r="F8">
-        <v>0.06656747777160445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01571097656724258</v>
+      </c>
+      <c r="G8">
+        <v>-0.03567265836584595</v>
+      </c>
+      <c r="H8">
+        <v>-0.0352144119485602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03254326169689157</v>
+        <v>-0.03085970475206057</v>
       </c>
       <c r="C9">
-        <v>-0.009112027312326793</v>
+        <v>0.003249495560164519</v>
       </c>
       <c r="D9">
-        <v>0.03966647866700881</v>
+        <v>-0.04680585407184253</v>
       </c>
       <c r="E9">
-        <v>0.02538189638123481</v>
+        <v>-0.006329365483340286</v>
       </c>
       <c r="F9">
-        <v>0.08061282718749917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01822943774810485</v>
+      </c>
+      <c r="G9">
+        <v>-0.04174541371150264</v>
+      </c>
+      <c r="H9">
+        <v>-0.05896889229524589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04203161126956986</v>
+        <v>-0.1302822660704137</v>
       </c>
       <c r="C10">
-        <v>-0.001221989849823571</v>
+        <v>-0.009605568918868334</v>
       </c>
       <c r="D10">
-        <v>-0.1370051508703334</v>
+        <v>0.155617449044489</v>
       </c>
       <c r="E10">
-        <v>-0.07400090883097235</v>
+        <v>0.000280253921155117</v>
       </c>
       <c r="F10">
-        <v>0.06724456946241648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03624447924866481</v>
+      </c>
+      <c r="G10">
+        <v>-0.03230613959562843</v>
+      </c>
+      <c r="H10">
+        <v>0.002156811344162154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02863451028204546</v>
+        <v>-0.01682396870969522</v>
       </c>
       <c r="C11">
-        <v>-0.01857772721641286</v>
+        <v>-0.008202012484831099</v>
       </c>
       <c r="D11">
-        <v>0.03553735965668101</v>
+        <v>-0.04990701862182026</v>
       </c>
       <c r="E11">
-        <v>0.02382864604142789</v>
+        <v>0.001139353906559845</v>
       </c>
       <c r="F11">
-        <v>0.02772605402287273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01146684003073899</v>
+      </c>
+      <c r="G11">
+        <v>-0.02244845594604005</v>
+      </c>
+      <c r="H11">
+        <v>-0.05028702659540694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04020585510137798</v>
+        <v>-0.02075049652378031</v>
       </c>
       <c r="C12">
-        <v>-0.01736293917826753</v>
+        <v>-0.004446499855677567</v>
       </c>
       <c r="D12">
-        <v>0.02864390139640816</v>
+        <v>-0.04853554842127737</v>
       </c>
       <c r="E12">
-        <v>0.03128684512070865</v>
+        <v>-0.01130539619162695</v>
       </c>
       <c r="F12">
-        <v>0.003779850777083836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01329022047053344</v>
+      </c>
+      <c r="G12">
+        <v>-0.004725422693655624</v>
+      </c>
+      <c r="H12">
+        <v>-0.02143218297103133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01119302853453798</v>
+        <v>-0.02373428799223011</v>
       </c>
       <c r="C13">
-        <v>-0.02037325402886995</v>
+        <v>0.01491757649276476</v>
       </c>
       <c r="D13">
-        <v>0.01449280118032041</v>
+        <v>-0.02534937895200606</v>
       </c>
       <c r="E13">
-        <v>0.01223617711790484</v>
+        <v>0.01194686672190491</v>
       </c>
       <c r="F13">
-        <v>0.07763772600567551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02190081005724315</v>
+      </c>
+      <c r="G13">
+        <v>-0.05697915334686644</v>
+      </c>
+      <c r="H13">
+        <v>-0.07794567731547807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02107581755526424</v>
+        <v>-0.01281889892222192</v>
       </c>
       <c r="C14">
-        <v>0.002730490318420868</v>
+        <v>0.002290798342859683</v>
       </c>
       <c r="D14">
-        <v>0.02070048452586334</v>
+        <v>-0.01806050690772012</v>
       </c>
       <c r="E14">
-        <v>0.02391255362559718</v>
+        <v>-0.01427245692373566</v>
       </c>
       <c r="F14">
-        <v>0.05078762436756601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01184095522761447</v>
+      </c>
+      <c r="G14">
+        <v>-0.03917504878222171</v>
+      </c>
+      <c r="H14">
+        <v>-0.01099476904513312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02907562716815601</v>
+        <v>-0.01900114291222769</v>
       </c>
       <c r="C16">
-        <v>-0.01803665566447986</v>
+        <v>-0.008084072454335086</v>
       </c>
       <c r="D16">
-        <v>0.04035025277706437</v>
+        <v>-0.04243900818697945</v>
       </c>
       <c r="E16">
-        <v>0.02790728750884093</v>
+        <v>-0.002816281318810118</v>
       </c>
       <c r="F16">
-        <v>0.02801626737737711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01401744245587396</v>
+      </c>
+      <c r="G16">
+        <v>-0.01884438621851361</v>
+      </c>
+      <c r="H16">
+        <v>-0.03783544445998677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03393744808178269</v>
+        <v>-0.02081256456604913</v>
       </c>
       <c r="C19">
-        <v>-0.01608278026474559</v>
+        <v>0.002821642968496498</v>
       </c>
       <c r="D19">
-        <v>0.04287499370905922</v>
+        <v>-0.04846184403088883</v>
       </c>
       <c r="E19">
-        <v>0.03753675958564124</v>
+        <v>-0.01089658316205762</v>
       </c>
       <c r="F19">
-        <v>0.08498235145887342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02577891622132902</v>
+      </c>
+      <c r="G19">
+        <v>-0.05462527873570991</v>
+      </c>
+      <c r="H19">
+        <v>-0.05502730143390261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003783016687687363</v>
+        <v>-0.006190830439622321</v>
       </c>
       <c r="C20">
-        <v>0.005773605553975047</v>
+        <v>0.006573310128462885</v>
       </c>
       <c r="D20">
-        <v>0.005655395867442675</v>
+        <v>-0.02323309792805856</v>
       </c>
       <c r="E20">
-        <v>0.01614113249356655</v>
+        <v>-0.004699550237840283</v>
       </c>
       <c r="F20">
-        <v>0.06424669138252008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01319151184219718</v>
+      </c>
+      <c r="G20">
+        <v>-0.05082672936886234</v>
+      </c>
+      <c r="H20">
+        <v>-0.02742994834601451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01477679301072764</v>
+        <v>-0.01176722047741064</v>
       </c>
       <c r="C21">
-        <v>0.01647521785943673</v>
+        <v>0.008017671863696611</v>
       </c>
       <c r="D21">
-        <v>0.03716104133309923</v>
+        <v>-0.02708013886579807</v>
       </c>
       <c r="E21">
-        <v>0.009535856172298428</v>
+        <v>-0.01788471611122521</v>
       </c>
       <c r="F21">
-        <v>0.02744134285308501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.004662514773246617</v>
+      </c>
+      <c r="G21">
+        <v>-0.04515986266554843</v>
+      </c>
+      <c r="H21">
+        <v>-0.04154371258263538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02694733557760356</v>
+        <v>-0.01426527451713717</v>
       </c>
       <c r="C24">
-        <v>-0.01619954996842099</v>
+        <v>-0.002709180484695742</v>
       </c>
       <c r="D24">
-        <v>0.02118657175464393</v>
+        <v>-0.04443719654703928</v>
       </c>
       <c r="E24">
-        <v>0.02105764708715007</v>
+        <v>-0.001392300266231856</v>
       </c>
       <c r="F24">
-        <v>0.03248950119451383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0101305625737365</v>
+      </c>
+      <c r="G24">
+        <v>-0.01397027086873406</v>
+      </c>
+      <c r="H24">
+        <v>-0.04661414321741854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03111982265471533</v>
+        <v>-0.02650281711202599</v>
       </c>
       <c r="C25">
-        <v>-0.01471165678959381</v>
+        <v>-0.0002319464231693331</v>
       </c>
       <c r="D25">
-        <v>0.03459195298890099</v>
+        <v>-0.04774770035371274</v>
       </c>
       <c r="E25">
-        <v>0.02046398060102383</v>
+        <v>-0.006981970591962848</v>
       </c>
       <c r="F25">
-        <v>0.03378252560606504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01781947682772136</v>
+      </c>
+      <c r="G25">
+        <v>-0.01833700602492725</v>
+      </c>
+      <c r="H25">
+        <v>-0.04476947040605236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0183405082893097</v>
+        <v>-0.01365487227597785</v>
       </c>
       <c r="C26">
-        <v>-0.009400222029060075</v>
+        <v>0.0196461682124105</v>
       </c>
       <c r="D26">
-        <v>0.02465611261351855</v>
+        <v>-0.01054004922526948</v>
       </c>
       <c r="E26">
-        <v>0.0005533866758388877</v>
+        <v>-0.001494561198017413</v>
       </c>
       <c r="F26">
-        <v>0.05471087701661435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00119240877608695</v>
+      </c>
+      <c r="G26">
+        <v>-0.02688659475858097</v>
+      </c>
+      <c r="H26">
+        <v>-0.02312949335278872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04167460673568454</v>
+        <v>-0.01656306861268191</v>
       </c>
       <c r="C27">
-        <v>-0.02028852844598119</v>
+        <v>-0.005486597156610102</v>
       </c>
       <c r="D27">
-        <v>0.005433379014987688</v>
+        <v>-0.01550601890801536</v>
       </c>
       <c r="E27">
-        <v>0.0323762804086352</v>
+        <v>-0.004436082642311207</v>
       </c>
       <c r="F27">
-        <v>0.02024537930427049</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.00831082157693901</v>
+      </c>
+      <c r="G27">
+        <v>-0.006243224084746407</v>
+      </c>
+      <c r="H27">
+        <v>-0.0004994224253426973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0737479948206826</v>
+        <v>-0.1778333100170525</v>
       </c>
       <c r="C28">
-        <v>-0.003835584411908451</v>
+        <v>-0.001111260255625303</v>
       </c>
       <c r="D28">
-        <v>-0.1932092326764813</v>
+        <v>0.1961303222303971</v>
       </c>
       <c r="E28">
-        <v>-0.1107581971740431</v>
+        <v>-0.01034129908463841</v>
       </c>
       <c r="F28">
-        <v>0.06574846368371859</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0344407741223331</v>
+      </c>
+      <c r="G28">
+        <v>-0.02089931344723383</v>
+      </c>
+      <c r="H28">
+        <v>0.01072844011788481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02287976230395425</v>
+        <v>-0.01769119675293617</v>
       </c>
       <c r="C29">
-        <v>0.001558978339309403</v>
+        <v>0.0009360632438474818</v>
       </c>
       <c r="D29">
-        <v>0.02302373299125121</v>
+        <v>-0.01837313613608628</v>
       </c>
       <c r="E29">
-        <v>0.0253018228683505</v>
+        <v>-0.01338110498816503</v>
       </c>
       <c r="F29">
-        <v>0.0476991932638343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01263391792134718</v>
+      </c>
+      <c r="G29">
+        <v>-0.03851870480864543</v>
+      </c>
+      <c r="H29">
+        <v>-0.006624673939672475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0541102497989976</v>
+        <v>-0.04019243774287645</v>
       </c>
       <c r="C30">
-        <v>-0.06893821800047345</v>
+        <v>0.006721782521479973</v>
       </c>
       <c r="D30">
-        <v>0.05263403591706958</v>
+        <v>-0.09410082800977204</v>
       </c>
       <c r="E30">
-        <v>0.04725175340643572</v>
+        <v>0.02946319807465218</v>
       </c>
       <c r="F30">
-        <v>0.0831503845067435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04510033907646444</v>
+      </c>
+      <c r="G30">
+        <v>-0.05414263698300863</v>
+      </c>
+      <c r="H30">
+        <v>-0.07502508393760859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05639883996072858</v>
+        <v>-0.04630095265300958</v>
       </c>
       <c r="C31">
-        <v>-0.03469320151740168</v>
+        <v>-0.007749674033776285</v>
       </c>
       <c r="D31">
-        <v>0.02079093872713502</v>
+        <v>-0.03232012409929413</v>
       </c>
       <c r="E31">
-        <v>0.02209979957827194</v>
+        <v>0.002218370105545898</v>
       </c>
       <c r="F31">
-        <v>0.03353067465427606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.003908136831135121</v>
+      </c>
+      <c r="G31">
+        <v>-0.01776025659844988</v>
+      </c>
+      <c r="H31">
+        <v>-0.003338427029026454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02472845367700803</v>
+        <v>-0.01033654260770284</v>
       </c>
       <c r="C32">
-        <v>0.01286890197778254</v>
+        <v>-0.0127436361479928</v>
       </c>
       <c r="D32">
-        <v>0.0559605139246093</v>
+        <v>-0.01511642286676766</v>
       </c>
       <c r="E32">
-        <v>0.04214873277421267</v>
+        <v>-0.03030367174863764</v>
       </c>
       <c r="F32">
-        <v>0.04483770364066284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03651650442132811</v>
+      </c>
+      <c r="G32">
+        <v>-0.03697551176571775</v>
+      </c>
+      <c r="H32">
+        <v>-0.04793004586852837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03373325887175646</v>
+        <v>-0.02580943658084007</v>
       </c>
       <c r="C33">
-        <v>-0.04138033922840865</v>
+        <v>0.002296843029690981</v>
       </c>
       <c r="D33">
-        <v>0.05405961933419953</v>
+        <v>-0.04824967118747162</v>
       </c>
       <c r="E33">
-        <v>0.009915132103683342</v>
+        <v>0.01928706119900978</v>
       </c>
       <c r="F33">
-        <v>0.06017113368013268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0002248390186539859</v>
+      </c>
+      <c r="G33">
+        <v>-0.04166068966356688</v>
+      </c>
+      <c r="H33">
+        <v>-0.05208810991785996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03343950490474686</v>
+        <v>-0.02391852652852389</v>
       </c>
       <c r="C34">
-        <v>-0.01025222277405766</v>
+        <v>-0.01627674934605702</v>
       </c>
       <c r="D34">
-        <v>0.03684317533662897</v>
+        <v>-0.04687133413658175</v>
       </c>
       <c r="E34">
-        <v>0.03708772422030531</v>
+        <v>-0.01376997839679306</v>
       </c>
       <c r="F34">
-        <v>0.03320442647291368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01736123424768133</v>
+      </c>
+      <c r="G34">
+        <v>-0.01205468493124266</v>
+      </c>
+      <c r="H34">
+        <v>-0.03607351257441169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01706743632090427</v>
+        <v>-0.01610147767303048</v>
       </c>
       <c r="C36">
-        <v>0.0008870735255400185</v>
+        <v>0.007049520189647377</v>
       </c>
       <c r="D36">
-        <v>0.01660963881283983</v>
+        <v>-0.00703753530052272</v>
       </c>
       <c r="E36">
-        <v>0.01183930946537816</v>
+        <v>-0.008207686138498194</v>
       </c>
       <c r="F36">
-        <v>0.02690804898603544</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001287718149736731</v>
+      </c>
+      <c r="G36">
+        <v>-0.01812158725339756</v>
+      </c>
+      <c r="H36">
+        <v>-0.01763016245938102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009196656029918284</v>
+        <v>-0.02810530099299446</v>
       </c>
       <c r="C38">
-        <v>-0.004928028924862118</v>
+        <v>-0.01485201842354852</v>
       </c>
       <c r="D38">
-        <v>0.001071083923980777</v>
+        <v>-0.01473347819855793</v>
       </c>
       <c r="E38">
-        <v>-0.02179015669612552</v>
+        <v>-0.001038011402984713</v>
       </c>
       <c r="F38">
-        <v>0.04220628863057309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009900115903584543</v>
+      </c>
+      <c r="G38">
+        <v>-0.01881163392225828</v>
+      </c>
+      <c r="H38">
+        <v>-0.04223916121765828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02722583040922823</v>
+        <v>-0.008840969629814042</v>
       </c>
       <c r="C39">
-        <v>-0.01818590895983475</v>
+        <v>-0.00304202379363927</v>
       </c>
       <c r="D39">
-        <v>0.05945461277693925</v>
+        <v>-0.08942945472227022</v>
       </c>
       <c r="E39">
-        <v>0.03052195526902868</v>
+        <v>0.005948565214570683</v>
       </c>
       <c r="F39">
-        <v>0.04551413961918158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01701243615187312</v>
+      </c>
+      <c r="G39">
+        <v>-0.03358272808570557</v>
+      </c>
+      <c r="H39">
+        <v>-0.07884138122997734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02051705200794967</v>
+        <v>-0.02546564876324691</v>
       </c>
       <c r="C40">
-        <v>-0.04767879952535516</v>
+        <v>0.001543862463546363</v>
       </c>
       <c r="D40">
-        <v>0.01944706870167981</v>
+        <v>-0.03574395854464243</v>
       </c>
       <c r="E40">
-        <v>0.03294742128191044</v>
+        <v>0.02308981478658993</v>
       </c>
       <c r="F40">
-        <v>0.05144115705691677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03485129373629776</v>
+      </c>
+      <c r="G40">
+        <v>-0.01704038721536357</v>
+      </c>
+      <c r="H40">
+        <v>-0.0653930121065027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004698594479475309</v>
+        <v>-0.01357590087442779</v>
       </c>
       <c r="C41">
-        <v>0.001049262418251078</v>
+        <v>0.002349022291544547</v>
       </c>
       <c r="D41">
-        <v>0.01203136830381657</v>
+        <v>0.0115037845439286</v>
       </c>
       <c r="E41">
-        <v>-0.007261675955382778</v>
+        <v>-0.003475437569205277</v>
       </c>
       <c r="F41">
-        <v>0.004438962886181396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005918057197512643</v>
+      </c>
+      <c r="G41">
+        <v>0.001422000990966832</v>
+      </c>
+      <c r="H41">
+        <v>0.001710001414987228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2448405698256186</v>
+        <v>-0.1309904844011697</v>
       </c>
       <c r="C42">
-        <v>-0.1976613841212795</v>
+        <v>0.0858142259828104</v>
       </c>
       <c r="D42">
-        <v>0.3509771244736938</v>
+        <v>-0.2387174435653666</v>
       </c>
       <c r="E42">
-        <v>-0.8094056771462838</v>
+        <v>0.232675805931665</v>
       </c>
       <c r="F42">
-        <v>-0.2697385062834793</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8850667837211976</v>
+      </c>
+      <c r="G42">
+        <v>0.2452393471696621</v>
+      </c>
+      <c r="H42">
+        <v>-0.02598638927656409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003828978477071666</v>
+        <v>-0.01480675479069221</v>
       </c>
       <c r="C43">
-        <v>-0.002391807397432127</v>
+        <v>0.00253784400931629</v>
       </c>
       <c r="D43">
-        <v>0.01350179922693328</v>
+        <v>0.007805818023402983</v>
       </c>
       <c r="E43">
-        <v>-0.002265464714163133</v>
+        <v>-9.914090273513277e-05</v>
       </c>
       <c r="F43">
-        <v>0.02350534474212486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003773639558073927</v>
+      </c>
+      <c r="G43">
+        <v>-9.477215749861294e-05</v>
+      </c>
+      <c r="H43">
+        <v>-0.005970993307143592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02399943838262004</v>
+        <v>-0.01487332085108896</v>
       </c>
       <c r="C44">
-        <v>0.004494943780880582</v>
+        <v>-0.003731608683068538</v>
       </c>
       <c r="D44">
-        <v>0.04116875425448054</v>
+        <v>-0.04344745805320748</v>
       </c>
       <c r="E44">
-        <v>0.007825790451594237</v>
+        <v>-0.0143825676056619</v>
       </c>
       <c r="F44">
-        <v>0.09552093205027727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001365871984878407</v>
+      </c>
+      <c r="G44">
+        <v>-0.04149432444038151</v>
+      </c>
+      <c r="H44">
+        <v>-0.05937374550261697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02101033483765361</v>
+        <v>-0.009915887089248026</v>
       </c>
       <c r="C46">
-        <v>-0.009887990587818314</v>
+        <v>0.006733902995235271</v>
       </c>
       <c r="D46">
-        <v>0.04363563508143617</v>
+        <v>-0.01640484315550527</v>
       </c>
       <c r="E46">
-        <v>0.02100456924324917</v>
+        <v>-0.00181236648732657</v>
       </c>
       <c r="F46">
-        <v>0.05750146484282559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006697803697591614</v>
+      </c>
+      <c r="G46">
+        <v>-0.04178616367493156</v>
+      </c>
+      <c r="H46">
+        <v>-0.00746132248122848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08441559752885677</v>
+        <v>-0.06354884352951633</v>
       </c>
       <c r="C47">
-        <v>-0.04476883080509885</v>
+        <v>-0.02159453075234244</v>
       </c>
       <c r="D47">
-        <v>0.01291847946227003</v>
+        <v>-0.06005704319717075</v>
       </c>
       <c r="E47">
-        <v>0.03152638548029935</v>
+        <v>-0.005790555028190648</v>
       </c>
       <c r="F47">
-        <v>0.008885457155867731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01022095932544424</v>
+      </c>
+      <c r="G47">
+        <v>0.007646070918471622</v>
+      </c>
+      <c r="H47">
+        <v>0.02677463823028253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01856353760131789</v>
+        <v>-0.01789764546026676</v>
       </c>
       <c r="C48">
-        <v>-0.01021786803953556</v>
+        <v>-0.003817734302429444</v>
       </c>
       <c r="D48">
-        <v>0.02233340711636552</v>
+        <v>-0.01555804021482624</v>
       </c>
       <c r="E48">
-        <v>0.01216432173525713</v>
+        <v>-0.001300835163763901</v>
       </c>
       <c r="F48">
-        <v>0.03284579234950438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006006727019578213</v>
+      </c>
+      <c r="G48">
+        <v>-0.01882494522142321</v>
+      </c>
+      <c r="H48">
+        <v>-0.01993303082651051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08510403673369904</v>
+        <v>-0.06671288341551004</v>
       </c>
       <c r="C50">
-        <v>-0.02809159915804508</v>
+        <v>-0.01961287155174319</v>
       </c>
       <c r="D50">
-        <v>0.03377348009672961</v>
+        <v>-0.0562577765690852</v>
       </c>
       <c r="E50">
-        <v>0.02497984391900684</v>
+        <v>-0.0170565388806106</v>
       </c>
       <c r="F50">
-        <v>0.02000502821815823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.004990124638474733</v>
+      </c>
+      <c r="G50">
+        <v>-0.003003885547147724</v>
+      </c>
+      <c r="H50">
+        <v>0.01351968391355311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0197308555659643</v>
+        <v>-0.0160568250593329</v>
       </c>
       <c r="C51">
-        <v>-0.003860707361447121</v>
+        <v>0.00227410476576092</v>
       </c>
       <c r="D51">
-        <v>0.002259593781152948</v>
+        <v>-0.01173877035747257</v>
       </c>
       <c r="E51">
-        <v>0.0008650189433993815</v>
+        <v>-0.008751154416997002</v>
       </c>
       <c r="F51">
-        <v>0.0864614516335049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.002371918910316772</v>
+      </c>
+      <c r="G51">
+        <v>-0.03453103557142174</v>
+      </c>
+      <c r="H51">
+        <v>-0.04479822467764921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09333742341474728</v>
+        <v>-0.08005547177057892</v>
       </c>
       <c r="C53">
-        <v>-0.04845501807423026</v>
+        <v>-0.02770504925476046</v>
       </c>
       <c r="D53">
-        <v>0.02445325435659202</v>
+        <v>-0.09641315037513945</v>
       </c>
       <c r="E53">
-        <v>0.04298917131619775</v>
+        <v>-0.01105719546017055</v>
       </c>
       <c r="F53">
-        <v>-0.03698784317364486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02840463795807015</v>
+      </c>
+      <c r="G53">
+        <v>0.03559776754202507</v>
+      </c>
+      <c r="H53">
+        <v>0.02574167187113797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0217657118415275</v>
+        <v>-0.0276339980878484</v>
       </c>
       <c r="C54">
-        <v>0.0005110668680608302</v>
+        <v>-0.007457375921308113</v>
       </c>
       <c r="D54">
-        <v>0.008923878704942368</v>
+        <v>0.00804991194647391</v>
       </c>
       <c r="E54">
-        <v>0.01711059374588998</v>
+        <v>-0.00705702383588568</v>
       </c>
       <c r="F54">
-        <v>0.0320743883398012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001806930284991165</v>
+      </c>
+      <c r="G54">
+        <v>-0.03629492556260486</v>
+      </c>
+      <c r="H54">
+        <v>-0.003094529849849761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08720509016933919</v>
+        <v>-0.0632406325092708</v>
       </c>
       <c r="C55">
-        <v>-0.04225668044266101</v>
+        <v>-0.02420359455134208</v>
       </c>
       <c r="D55">
-        <v>0.03989261834191296</v>
+        <v>-0.08876473170980222</v>
       </c>
       <c r="E55">
-        <v>0.0415520838245632</v>
+        <v>-0.01028546716300282</v>
       </c>
       <c r="F55">
-        <v>-0.03929394795923709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01987402521169683</v>
+      </c>
+      <c r="G55">
+        <v>0.01757852622667999</v>
+      </c>
+      <c r="H55">
+        <v>0.03675664898510714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1301637624159453</v>
+        <v>-0.1077081897582989</v>
       </c>
       <c r="C56">
-        <v>-0.0728624284773479</v>
+        <v>-0.04204326322060729</v>
       </c>
       <c r="D56">
-        <v>0.008912463196593228</v>
+        <v>-0.1199755555218906</v>
       </c>
       <c r="E56">
-        <v>0.0859186175420117</v>
+        <v>-0.01028583382231754</v>
       </c>
       <c r="F56">
-        <v>-0.07370914009055314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05223204414318225</v>
+      </c>
+      <c r="G56">
+        <v>0.06728212990571607</v>
+      </c>
+      <c r="H56">
+        <v>0.06311341148217257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04098385488032824</v>
+        <v>-0.03024679721172904</v>
       </c>
       <c r="C57">
-        <v>-0.03210807119076427</v>
+        <v>0.01486188840487283</v>
       </c>
       <c r="D57">
-        <v>0.02464013761017089</v>
+        <v>-0.03758987470693087</v>
       </c>
       <c r="E57">
-        <v>-0.006051354442431156</v>
+        <v>0.009383421928139716</v>
       </c>
       <c r="F57">
-        <v>0.05009778684700961</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.003004035635030347</v>
+      </c>
+      <c r="G57">
+        <v>-0.06681316750874784</v>
+      </c>
+      <c r="H57">
+        <v>-0.05138250237701223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1553778887818288</v>
+        <v>-0.1233477001097521</v>
       </c>
       <c r="C58">
-        <v>-0.1948338264387272</v>
+        <v>-0.0338608184387588</v>
       </c>
       <c r="D58">
-        <v>0.2115239899676337</v>
+        <v>-0.1821207124998844</v>
       </c>
       <c r="E58">
-        <v>0.04495286750710537</v>
+        <v>0.2640495184462531</v>
       </c>
       <c r="F58">
-        <v>0.5123911394333585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1075617888863117</v>
+      </c>
+      <c r="G58">
+        <v>-0.8077228751076558</v>
+      </c>
+      <c r="H58">
+        <v>0.3740234743984517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05549257705518578</v>
+        <v>-0.1910897786253112</v>
       </c>
       <c r="C59">
-        <v>-0.0256179884645784</v>
+        <v>-0.009653212787947655</v>
       </c>
       <c r="D59">
-        <v>-0.1698344299022821</v>
+        <v>0.1935822816587371</v>
       </c>
       <c r="E59">
-        <v>-0.06314765984885251</v>
+        <v>0.008096998405466252</v>
       </c>
       <c r="F59">
-        <v>0.08765893074101717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001809800198902828</v>
+      </c>
+      <c r="G59">
+        <v>-0.02001894859918161</v>
+      </c>
+      <c r="H59">
+        <v>-0.02310456834892824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1378785951751617</v>
+        <v>-0.2043528120470753</v>
       </c>
       <c r="C60">
-        <v>-0.1062076139186557</v>
+        <v>-0.02245050999911227</v>
       </c>
       <c r="D60">
-        <v>0.009291757396941689</v>
+        <v>-0.04416301468851847</v>
       </c>
       <c r="E60">
-        <v>-0.02379315260927755</v>
+        <v>0.05244073142925835</v>
       </c>
       <c r="F60">
-        <v>0.1623788444779072</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06776312223660184</v>
+      </c>
+      <c r="G60">
+        <v>-0.02955653024785309</v>
+      </c>
+      <c r="H60">
+        <v>-0.3671246086271633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0208804224880601</v>
+        <v>-0.01591625239617736</v>
       </c>
       <c r="C61">
-        <v>-0.01019795305367746</v>
+        <v>-0.00701517795858858</v>
       </c>
       <c r="D61">
-        <v>0.04171104395331433</v>
+        <v>-0.0595905430078302</v>
       </c>
       <c r="E61">
-        <v>0.01719189141857227</v>
+        <v>-0.002761263348179763</v>
       </c>
       <c r="F61">
-        <v>0.01524806510316107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02011525498649159</v>
+      </c>
+      <c r="G61">
+        <v>-0.02419893757473476</v>
+      </c>
+      <c r="H61">
+        <v>-0.05670362140004274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01266862154761484</v>
+        <v>-0.008966208933423814</v>
       </c>
       <c r="C63">
-        <v>-0.005177830436798076</v>
+        <v>0.003184376924022821</v>
       </c>
       <c r="D63">
-        <v>0.03171339728674393</v>
+        <v>-0.0245202427525545</v>
       </c>
       <c r="E63">
-        <v>0.01361583036835801</v>
+        <v>-0.007230203419335912</v>
       </c>
       <c r="F63">
-        <v>0.009577420295105265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009640344020798849</v>
+      </c>
+      <c r="G63">
+        <v>-0.01412870128262425</v>
+      </c>
+      <c r="H63">
+        <v>-0.01456483325204169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03482173444636189</v>
+        <v>-0.0371922495317329</v>
       </c>
       <c r="C64">
-        <v>-0.001291079445923811</v>
+        <v>-0.006183303331635923</v>
       </c>
       <c r="D64">
-        <v>0.03220173455115101</v>
+        <v>-0.03983778776873746</v>
       </c>
       <c r="E64">
-        <v>0.02576384744984276</v>
+        <v>-0.01470269424972808</v>
       </c>
       <c r="F64">
-        <v>0.02347473204220626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003492626526693738</v>
+      </c>
+      <c r="G64">
+        <v>0.005801397916433494</v>
+      </c>
+      <c r="H64">
+        <v>-0.04910201297388767</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03733575225377016</v>
+        <v>-0.03825624556190798</v>
       </c>
       <c r="C65">
-        <v>-0.01257173620064855</v>
+        <v>0.001109926154293465</v>
       </c>
       <c r="D65">
-        <v>0.02814864067554811</v>
+        <v>-0.07418835735675436</v>
       </c>
       <c r="E65">
-        <v>0.0237338359504677</v>
+        <v>-0.008054963308381511</v>
       </c>
       <c r="F65">
-        <v>0.001422416564734589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04120064972720997</v>
+      </c>
+      <c r="G65">
+        <v>0.002017498149636716</v>
+      </c>
+      <c r="H65">
+        <v>-0.07276111834208315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03323348364697055</v>
+        <v>-0.01731198568928951</v>
       </c>
       <c r="C66">
-        <v>-0.02888403873421769</v>
+        <v>-0.009310994598372365</v>
       </c>
       <c r="D66">
-        <v>0.06063012907505753</v>
+        <v>-0.1130406934110326</v>
       </c>
       <c r="E66">
-        <v>0.05146462570709485</v>
+        <v>0.006342995490667474</v>
       </c>
       <c r="F66">
-        <v>0.02832501047397314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03895896443585229</v>
+      </c>
+      <c r="G66">
+        <v>-0.03068561968517626</v>
+      </c>
+      <c r="H66">
+        <v>-0.08105229234085976</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01938726402628761</v>
+        <v>-0.04858872061576044</v>
       </c>
       <c r="C67">
-        <v>-0.01389058550700218</v>
+        <v>-0.01616780160633574</v>
       </c>
       <c r="D67">
-        <v>-0.00986408931235816</v>
+        <v>-0.01935228276743362</v>
       </c>
       <c r="E67">
-        <v>-0.01454996707777332</v>
+        <v>0.0005019546507230391</v>
       </c>
       <c r="F67">
-        <v>0.0249836904446341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02021845907930552</v>
+      </c>
+      <c r="G67">
+        <v>-0.009897643798618006</v>
+      </c>
+      <c r="H67">
+        <v>-0.04017024847580403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07050072618738344</v>
+        <v>-0.1913021149817224</v>
       </c>
       <c r="C68">
-        <v>-0.02237136994299688</v>
+        <v>0.01251323702328437</v>
       </c>
       <c r="D68">
-        <v>-0.1797850910879473</v>
+        <v>0.2154376834943393</v>
       </c>
       <c r="E68">
-        <v>-0.06791568387165885</v>
+        <v>0.01021008684607914</v>
       </c>
       <c r="F68">
-        <v>0.07929365695392816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04089153477850664</v>
+      </c>
+      <c r="G68">
+        <v>-0.03147808232557774</v>
+      </c>
+      <c r="H68">
+        <v>0.05104422522392405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06043855236698543</v>
+        <v>-0.05954312825831232</v>
       </c>
       <c r="C69">
-        <v>-0.03497816862086487</v>
+        <v>-0.02417335019971107</v>
       </c>
       <c r="D69">
-        <v>0.01335186220908923</v>
+        <v>-0.05174295746322922</v>
       </c>
       <c r="E69">
-        <v>0.04024815155569464</v>
+        <v>-0.005051979245743183</v>
       </c>
       <c r="F69">
-        <v>0.007293920316237134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02770821596155992</v>
+      </c>
+      <c r="G69">
+        <v>0.01023015659322173</v>
+      </c>
+      <c r="H69">
+        <v>-0.009827565032813864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07526768232818637</v>
+        <v>-0.173029600326339</v>
       </c>
       <c r="C71">
-        <v>-0.02804761388936437</v>
+        <v>0.002103721021441413</v>
       </c>
       <c r="D71">
-        <v>-0.191609280961104</v>
+        <v>0.1731755995960815</v>
       </c>
       <c r="E71">
-        <v>-0.1156282454007647</v>
+        <v>0.01341718508026306</v>
       </c>
       <c r="F71">
-        <v>0.08478186515804816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05010844428650044</v>
+      </c>
+      <c r="G71">
+        <v>-0.03631707074525739</v>
+      </c>
+      <c r="H71">
+        <v>0.02278793338473144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0969715484132035</v>
+        <v>-0.06740128625840555</v>
       </c>
       <c r="C72">
-        <v>-0.06909408568758203</v>
+        <v>-0.03132653633841007</v>
       </c>
       <c r="D72">
-        <v>0.05344261883841044</v>
+        <v>-0.09064487588254595</v>
       </c>
       <c r="E72">
-        <v>0.08571213464560018</v>
+        <v>0.01407182658007623</v>
       </c>
       <c r="F72">
-        <v>0.07080730165468035</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0694500817940482</v>
+      </c>
+      <c r="G72">
+        <v>-0.01717012737417131</v>
+      </c>
+      <c r="H72">
+        <v>-0.123677900508147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1823735501535205</v>
+        <v>-0.2676211166263932</v>
       </c>
       <c r="C73">
-        <v>-0.1745055519180629</v>
+        <v>-0.03186592844664483</v>
       </c>
       <c r="D73">
-        <v>-0.01783548962329485</v>
+        <v>-0.1184928501282045</v>
       </c>
       <c r="E73">
-        <v>-0.07084170536474238</v>
+        <v>0.09312332696869548</v>
       </c>
       <c r="F73">
-        <v>0.2026285245355837</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08087200101863176</v>
+      </c>
+      <c r="G73">
+        <v>-0.0407998890229463</v>
+      </c>
+      <c r="H73">
+        <v>-0.4696382457135972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1229323338395527</v>
+        <v>-0.1082034350876242</v>
       </c>
       <c r="C74">
-        <v>-0.06902407661187064</v>
+        <v>-0.04229026251904582</v>
       </c>
       <c r="D74">
-        <v>0.01495564657973184</v>
+        <v>-0.1251056641320142</v>
       </c>
       <c r="E74">
-        <v>0.05237059792333218</v>
+        <v>-0.01268897757790079</v>
       </c>
       <c r="F74">
-        <v>-0.07640066875063639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04148385948426599</v>
+      </c>
+      <c r="G74">
+        <v>0.05135647825748615</v>
+      </c>
+      <c r="H74">
+        <v>0.02507670578080755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2117528201509253</v>
+        <v>-0.2070298935854109</v>
       </c>
       <c r="C75">
-        <v>-0.1317237317575347</v>
+        <v>-0.07821397903676618</v>
       </c>
       <c r="D75">
-        <v>-0.004737594283057433</v>
+        <v>-0.1936743528576128</v>
       </c>
       <c r="E75">
-        <v>0.1556351055624104</v>
+        <v>-0.009290227978156188</v>
       </c>
       <c r="F75">
-        <v>-0.1113800057705453</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09343676732326898</v>
+      </c>
+      <c r="G75">
+        <v>0.1149462158198399</v>
+      </c>
+      <c r="H75">
+        <v>0.1420834519479741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2573259069455885</v>
+        <v>-0.1686401845118274</v>
       </c>
       <c r="C76">
-        <v>-0.1168530987439124</v>
+        <v>-0.07175476046356886</v>
       </c>
       <c r="D76">
-        <v>0.002399084213276789</v>
+        <v>-0.1886931349841202</v>
       </c>
       <c r="E76">
-        <v>0.1808584567151169</v>
+        <v>-0.04645447535276968</v>
       </c>
       <c r="F76">
-        <v>-0.2028887577263634</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08470810698800572</v>
+      </c>
+      <c r="G76">
+        <v>0.1113515412666321</v>
+      </c>
+      <c r="H76">
+        <v>0.1190493301286369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1015999408959849</v>
+        <v>-0.05925820621340147</v>
       </c>
       <c r="C77">
-        <v>-0.06995448967800365</v>
+        <v>-0.005721927988769654</v>
       </c>
       <c r="D77">
-        <v>0.1300917409194269</v>
+        <v>-0.08784646567531897</v>
       </c>
       <c r="E77">
-        <v>-0.00899402925862659</v>
+        <v>0.01702570419055983</v>
       </c>
       <c r="F77">
-        <v>0.1336232955788394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02121431066487251</v>
+      </c>
+      <c r="G77">
+        <v>-0.07452546386998869</v>
+      </c>
+      <c r="H77">
+        <v>-0.02420391614131957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06575434302507378</v>
+        <v>-0.03265626647642906</v>
       </c>
       <c r="C78">
-        <v>-0.03086332596307063</v>
+        <v>-0.008745575547756419</v>
       </c>
       <c r="D78">
-        <v>0.110556948629645</v>
+        <v>-0.07228120850919802</v>
       </c>
       <c r="E78">
-        <v>0.04061775879946364</v>
+        <v>-0.005410721856134519</v>
       </c>
       <c r="F78">
-        <v>0.07561005178025244</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01694908414073344</v>
+      </c>
+      <c r="G78">
+        <v>-0.05994167714152469</v>
+      </c>
+      <c r="H78">
+        <v>-0.09286547073953716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5347469384127845</v>
+        <v>-0.1163443507850237</v>
       </c>
       <c r="C80">
-        <v>0.826478412705709</v>
+        <v>-0.02132891425730385</v>
       </c>
       <c r="D80">
-        <v>0.07701579849657804</v>
+        <v>-0.0961747917188995</v>
       </c>
       <c r="E80">
-        <v>-0.03007711887117859</v>
+        <v>-0.9159945483228166</v>
       </c>
       <c r="F80">
-        <v>0.04128816039021235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2594265425332833</v>
+      </c>
+      <c r="G80">
+        <v>-0.1946409267120356</v>
+      </c>
+      <c r="H80">
+        <v>-0.005508717758751566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1675737037696423</v>
+        <v>-0.1373718012552595</v>
       </c>
       <c r="C81">
-        <v>-0.09118384004099203</v>
+        <v>-0.05073556179291393</v>
       </c>
       <c r="D81">
-        <v>-0.01107544007898135</v>
+        <v>-0.1274248640721058</v>
       </c>
       <c r="E81">
-        <v>0.1244973002498485</v>
+        <v>-0.01646781156801433</v>
       </c>
       <c r="F81">
-        <v>-0.1146032685850821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06026277059635154</v>
+      </c>
+      <c r="G81">
+        <v>0.07333737010840381</v>
+      </c>
+      <c r="H81">
+        <v>0.08121230710601032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03149151750206568</v>
+        <v>-0.03038106453723623</v>
       </c>
       <c r="C83">
-        <v>-0.02412357283407267</v>
+        <v>-0.003176042568222491</v>
       </c>
       <c r="D83">
-        <v>0.03085727697024471</v>
+        <v>-0.0275719941118537</v>
       </c>
       <c r="E83">
-        <v>-0.006384707505489936</v>
+        <v>0.006537699934857704</v>
       </c>
       <c r="F83">
-        <v>0.06077326927043338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.003708078791365379</v>
+      </c>
+      <c r="G83">
+        <v>-0.04065375314954706</v>
+      </c>
+      <c r="H83">
+        <v>-0.04264219788572331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2337753408046714</v>
+        <v>-0.1950900488440472</v>
       </c>
       <c r="C85">
-        <v>-0.1290731718318593</v>
+        <v>-0.06324278360093302</v>
       </c>
       <c r="D85">
-        <v>0.00213646136635697</v>
+        <v>-0.1964930839274406</v>
       </c>
       <c r="E85">
-        <v>0.1367019541415474</v>
+        <v>-0.007600842391478681</v>
       </c>
       <c r="F85">
-        <v>-0.1490417489705157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07800227160896722</v>
+      </c>
+      <c r="G85">
+        <v>0.1337762916903233</v>
+      </c>
+      <c r="H85">
+        <v>0.068660129495169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007134170003663132</v>
+        <v>-0.01772457850136909</v>
       </c>
       <c r="C86">
-        <v>0.003827178312795363</v>
+        <v>-0.0002128966016824767</v>
       </c>
       <c r="D86">
-        <v>0.07303006929252927</v>
+        <v>-0.03959103983580737</v>
       </c>
       <c r="E86">
-        <v>0.006132153474219929</v>
+        <v>-0.008120300600976368</v>
       </c>
       <c r="F86">
-        <v>0.05268990775939862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.008129339322041174</v>
+      </c>
+      <c r="G86">
+        <v>-0.04027842541341847</v>
+      </c>
+      <c r="H86">
+        <v>-0.08754620350306626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03614265045017444</v>
+        <v>-0.01756033085474005</v>
       </c>
       <c r="C87">
-        <v>-0.01874302414937734</v>
+        <v>-0.0004340519691712631</v>
       </c>
       <c r="D87">
-        <v>0.03827800844347452</v>
+        <v>-0.04906018747045647</v>
       </c>
       <c r="E87">
-        <v>0.007167554197130471</v>
+        <v>0.002667109667357034</v>
       </c>
       <c r="F87">
-        <v>0.105741007835918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005936944836619221</v>
+      </c>
+      <c r="G87">
+        <v>-0.07847013163731267</v>
+      </c>
+      <c r="H87">
+        <v>-0.07986909460600246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02004902386564918</v>
+        <v>-0.04094407443968212</v>
       </c>
       <c r="C88">
-        <v>0.004135580444359872</v>
+        <v>0.01291581367543044</v>
       </c>
       <c r="D88">
-        <v>-0.006323582225608657</v>
+        <v>-0.02048882718470887</v>
       </c>
       <c r="E88">
-        <v>0.01679881015296024</v>
+        <v>-0.01893424274130267</v>
       </c>
       <c r="F88">
-        <v>-0.01644790709780048</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01511396231321359</v>
+      </c>
+      <c r="G88">
+        <v>0.004835816753840318</v>
+      </c>
+      <c r="H88">
+        <v>-0.01431129544278986</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1063873854385574</v>
+        <v>-0.2991315491705815</v>
       </c>
       <c r="C89">
-        <v>-0.04600656470467833</v>
+        <v>0.006232350402032677</v>
       </c>
       <c r="D89">
-        <v>-0.3123587808633608</v>
+        <v>0.3147200801548679</v>
       </c>
       <c r="E89">
-        <v>-0.1170647594229074</v>
+        <v>0.01254263028613896</v>
       </c>
       <c r="F89">
-        <v>0.1092969019158603</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0198154481343655</v>
+      </c>
+      <c r="G89">
+        <v>0.02038952166180996</v>
+      </c>
+      <c r="H89">
+        <v>-0.006997555816955737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09178755045478251</v>
+        <v>-0.246277967260611</v>
       </c>
       <c r="C90">
-        <v>-0.01613024371325272</v>
+        <v>0.005784374353467888</v>
       </c>
       <c r="D90">
-        <v>-0.3347163046365768</v>
+        <v>0.2839186238584016</v>
       </c>
       <c r="E90">
-        <v>-0.1351458970835838</v>
+        <v>0.003964523834824911</v>
       </c>
       <c r="F90">
-        <v>0.05765347056285042</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05472216549340676</v>
+      </c>
+      <c r="G90">
+        <v>-0.0006154383904245116</v>
+      </c>
+      <c r="H90">
+        <v>0.05660511096513599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2679774156492578</v>
+        <v>-0.2085907392949121</v>
       </c>
       <c r="C91">
-        <v>-0.1697038849692178</v>
+        <v>-0.07545536639899809</v>
       </c>
       <c r="D91">
-        <v>0.0001028723182880277</v>
+        <v>-0.1811053020673978</v>
       </c>
       <c r="E91">
-        <v>0.137315472527603</v>
+        <v>0.001833494083861054</v>
       </c>
       <c r="F91">
-        <v>-0.2392948618607373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0791229962702719</v>
+      </c>
+      <c r="G91">
+        <v>0.1361880645015</v>
+      </c>
+      <c r="H91">
+        <v>0.1609263858629373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1617440940465969</v>
+        <v>-0.2764335623270406</v>
       </c>
       <c r="C92">
-        <v>-0.06445305523439444</v>
+        <v>-0.05350650136851198</v>
       </c>
       <c r="D92">
-        <v>-0.4461692241244706</v>
+        <v>0.2045556262809148</v>
       </c>
       <c r="E92">
-        <v>-0.003733264983711891</v>
+        <v>-0.007465919109302011</v>
       </c>
       <c r="F92">
-        <v>-0.02856571473707882</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01592352644091204</v>
+      </c>
+      <c r="G92">
+        <v>-0.01877882545433456</v>
+      </c>
+      <c r="H92">
+        <v>0.1303441203685334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09065528673841146</v>
+        <v>-0.2767861442984927</v>
       </c>
       <c r="C93">
-        <v>-0.05360435784288373</v>
+        <v>-0.003794717906386369</v>
       </c>
       <c r="D93">
-        <v>-0.4013064016612685</v>
+        <v>0.2928201471853004</v>
       </c>
       <c r="E93">
-        <v>-0.1878363534607931</v>
+        <v>0.03276192373797875</v>
       </c>
       <c r="F93">
-        <v>0.06840208718211346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05215160985143014</v>
+      </c>
+      <c r="G93">
+        <v>0.007192154749551033</v>
+      </c>
+      <c r="H93">
+        <v>-0.007554949639194431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.257910408882578</v>
+        <v>-0.2506379535527526</v>
       </c>
       <c r="C94">
-        <v>-0.1724330499118729</v>
+        <v>-0.06967773513253819</v>
       </c>
       <c r="D94">
-        <v>-0.02937222420746255</v>
+        <v>-0.1955511183717697</v>
       </c>
       <c r="E94">
-        <v>0.2290420550988174</v>
+        <v>0.006146701904817573</v>
       </c>
       <c r="F94">
-        <v>-0.1814517038499535</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1861794746831553</v>
+      </c>
+      <c r="G94">
+        <v>0.2361200131846142</v>
+      </c>
+      <c r="H94">
+        <v>0.3686882372758852</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02176903269540966</v>
+        <v>-0.0433052035887513</v>
       </c>
       <c r="C95">
-        <v>-0.08623471278250792</v>
+        <v>-0.02652298118679073</v>
       </c>
       <c r="D95">
-        <v>0.06778905580503237</v>
+        <v>-0.09408422503285542</v>
       </c>
       <c r="E95">
-        <v>0.01176558435768993</v>
+        <v>0.08087505463159252</v>
       </c>
       <c r="F95">
-        <v>0.01906130849053428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.005297122735374081</v>
+      </c>
+      <c r="G95">
+        <v>-0.03481491768411434</v>
+      </c>
+      <c r="H95">
+        <v>-0.05138109686941441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1426319417405061</v>
+        <v>-0.1841871572310231</v>
       </c>
       <c r="C98">
-        <v>-0.1099572959751587</v>
+        <v>-0.04832311194569733</v>
       </c>
       <c r="D98">
-        <v>-0.01789040987487838</v>
+        <v>-0.05889656604608302</v>
       </c>
       <c r="E98">
-        <v>-0.06665925997767498</v>
+        <v>0.06342314528583513</v>
       </c>
       <c r="F98">
-        <v>0.1590791317170457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02167487713631582</v>
+      </c>
+      <c r="G98">
+        <v>-0.07796847156759526</v>
+      </c>
+      <c r="H98">
+        <v>-0.3326424323592492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009113896062841954</v>
+        <v>-0.01176908059586409</v>
       </c>
       <c r="C101">
-        <v>0.0009282123290454161</v>
+        <v>0.001822241366049849</v>
       </c>
       <c r="D101">
-        <v>0.06311181130347608</v>
+        <v>-0.01938493868079909</v>
       </c>
       <c r="E101">
-        <v>0.04249834650247493</v>
+        <v>-0.0003858757516768649</v>
       </c>
       <c r="F101">
-        <v>0.1669310320231939</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01243973752062424</v>
+      </c>
+      <c r="G101">
+        <v>-0.09927370916913156</v>
+      </c>
+      <c r="H101">
+        <v>0.01640991522290186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1076640973544505</v>
+        <v>-0.09671239993670859</v>
       </c>
       <c r="C102">
-        <v>-0.05644507334109966</v>
+        <v>-0.02381539187704695</v>
       </c>
       <c r="D102">
-        <v>-0.0005507685557180623</v>
+        <v>-0.09341051954061712</v>
       </c>
       <c r="E102">
-        <v>0.07592365629761462</v>
+        <v>-0.00917970757232194</v>
       </c>
       <c r="F102">
-        <v>-0.09536020202335332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04617876026556882</v>
+      </c>
+      <c r="G102">
+        <v>0.06451728940722164</v>
+      </c>
+      <c r="H102">
+        <v>0.05891922346830888</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04240085742650745</v>
+        <v>-0.0132921804254633</v>
       </c>
       <c r="C103">
-        <v>-0.009332492673422966</v>
+        <v>-0.004541225072347937</v>
       </c>
       <c r="D103">
-        <v>0.02154048120126453</v>
+        <v>-0.01793469615945438</v>
       </c>
       <c r="E103">
-        <v>0.04056174721000836</v>
+        <v>-0.01299232392019786</v>
       </c>
       <c r="F103">
-        <v>-0.005919283530263742</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.005269167067479924</v>
+      </c>
+      <c r="G103">
+        <v>-0.00333340740711749</v>
+      </c>
+      <c r="H103">
+        <v>0.01246081265109636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1393862567948398</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9713287116619823</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.09277342322794482</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02992001070288677</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1268192467296135</v>
+      </c>
+      <c r="G104">
+        <v>0.003697649835687047</v>
+      </c>
+      <c r="H104">
+        <v>0.04914921252702312</v>
       </c>
     </row>
   </sheetData>
